--- a/biology/Botanique/Hypomyces_lactifluorum/Hypomyces_lactifluorum.xlsx
+++ b/biology/Botanique/Hypomyces_lactifluorum/Hypomyces_lactifluorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypomyces lactifluorum est une espèce de champignons parasites de certaines variétés de russules et de lactaires. Son nom vernaculaire est dermatose des russules. Le champignon ainsi parasité est très déformé et couvert d'un croûte orange vif à rouge qui ressemble à une maladie (dermatose). Il a une odeur de crabe ou de homard.
 C'est une espèce exclusivement Nord-Américaine, fréquente à l'orée de la forêt mixte, ou dans les bois clairs, habituellement dans les sols sablonneux. Il colonise le plus souvent les russules du sous-genre compactae (notamment Russula brevipes, la russule à pied court), plus rarement les lactaires de genre piperatus, et exceptionnellement d'autres familles.
